--- a/dsTaiKhoanVN2611.xlsx
+++ b/dsTaiKhoanVN2611.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ToolRegGoethe\ToolRegGoethe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23A3B1A-2D9C-4848-9F07-AAF73011E653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F53751F-B0F4-4673-9EF3-C7049BBA6754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,10 +584,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -595,24 +598,24 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -620,15 +623,12 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
         <v>6</v>
       </c>
     </row>

--- a/dsTaiKhoanVN2611.xlsx
+++ b/dsTaiKhoanVN2611.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ToolRegGoethe\ToolRegGoethe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F53751F-B0F4-4673-9EF3-C7049BBA6754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52A00A5-17BF-4DBA-B0FB-EA372CF930B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="855" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,29 +542,32 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
       <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" t="s">
@@ -573,24 +576,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -598,24 +601,21 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -623,10 +623,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/dsTaiKhoanVN2611.xlsx
+++ b/dsTaiKhoanVN2611.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ToolRegGoethe\ToolRegGoethe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52A00A5-17BF-4DBA-B0FB-EA372CF930B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5101B3DB-2181-4B98-97B6-BEFC7BA81BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="855" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Tài khoản</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>https://www.goethe.de/ins/vn/en/sta/han/prf/gzb1.cfm</t>
+  </si>
+  <si>
+    <t>sai tk/mk</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +488,7 @@
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -490,7 +496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -498,7 +504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -506,7 +512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -539,8 +545,11 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -559,8 +568,11 @@
       <c r="F6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -573,8 +585,11 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -587,8 +602,11 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -598,8 +616,11 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -609,8 +630,11 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -620,8 +644,11 @@
       <c r="F11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>

--- a/dsTaiKhoanVN2611.xlsx
+++ b/dsTaiKhoanVN2611.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ToolRegGoethe\ToolRegGoethe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AutoReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5101B3DB-2181-4B98-97B6-BEFC7BA81BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C0208F-8C9E-4452-9E11-AC5B329D6A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Tên</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>24/11/2024 8:0:0</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>B1-VN-G</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -534,11 +534,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -546,16 +546,16 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -569,16 +569,16 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -586,16 +586,16 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -603,57 +603,57 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
